--- a/AAII_Financials/Yearly/CAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAR_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>CAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9172000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9124000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8848000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8659000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8502000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8485000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7937000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7357000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5900000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4694000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4627000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4491000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4408000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4300000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4253000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4081000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3824000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3025000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4478000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4497000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4357000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4251000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4202000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4232000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3856000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3533000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2875000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,69 +888,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E14" s="3">
         <v>61000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>91000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>77000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>109000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>95000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>292000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>147000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>260000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2230000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2206000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2130000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2055000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2020000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1969000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1693000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1552000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8441000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8391000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8130000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7929000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7713000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7611000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7361000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6492000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5359000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E18" s="3">
         <v>733000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>718000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>730000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>789000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>874000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>576000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>865000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>541000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-259000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-296000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-180000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-181000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-263000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-226000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-297000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-286000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2633000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2704000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2628000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2680000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2663000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2631000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2180000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>693000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>350000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E22" s="3">
         <v>207000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>211000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>271000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>226000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>219000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>253000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>268000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>219000</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E23" s="3">
         <v>267000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>211000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>279000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>382000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>392000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>97000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E24" s="3">
         <v>102000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>63000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>116000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>69000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>147000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>81000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E26" s="3">
         <v>165000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>148000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>163000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>313000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>245000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>290000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-29000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E27" s="3">
         <v>165000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>148000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>163000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>313000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>245000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>290000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-29000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,20 +1344,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>213000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E32" s="3">
         <v>259000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>296000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>180000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>181000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>263000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>226000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>297000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>286000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E33" s="3">
         <v>165000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>361000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>163000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>313000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>245000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>290000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-29000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E35" s="3">
         <v>165000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>361000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>163000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>313000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>245000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>290000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-29000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,38 +1646,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E41" s="3">
         <v>615000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>611000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>490000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>452000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>624000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>693000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>606000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>534000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,39 +1709,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>911000</v>
+      </c>
+      <c r="E43" s="3">
         <v>955000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>922000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>808000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>668000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>599000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>619000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>553000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>507000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,159 +1775,177 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>548000</v>
+      </c>
+      <c r="E45" s="3">
         <v>604000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>533000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>519000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>507000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>615000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>632000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>551000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2174000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2066000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1817000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1627000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1679000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1944000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1710000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1541000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1427000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1190000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>970000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>889000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>800000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>724000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>909000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>801000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>723000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15228000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11614000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10704000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10168000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10376000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10179000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10196000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9803000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8849000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1899000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1917000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1923000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1877000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1890000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1728000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1614000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1106000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1066000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2427000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2254000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2036000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2892000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2941000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2532000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1621000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1798000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>759000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23126000</v>
+      </c>
+      <c r="E54" s="3">
         <v>19149000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17699000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17643000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17634000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16842000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16284000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15218000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12938000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E57" s="3">
         <v>371000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>359000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>343000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>352000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>328000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>344000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>309000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>312000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E58" s="3">
         <v>23000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>26000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>279000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>28000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>89000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>57000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>37000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1322000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1260000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1145000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1133000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1163000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1135000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1112000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1121000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1716000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1645000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1767000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1511000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1519000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1568000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1478000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1470000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14484000</v>
+      </c>
+      <c r="E61" s="3">
         <v>13760000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12794000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12122000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12295000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11381000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10642000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9654000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8732000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5761000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3259000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2687000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3533000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3389000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3277000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3303000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3329000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2324000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22470000</v>
+      </c>
+      <c r="E66" s="3">
         <v>18735000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17126000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17422000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17195000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16177000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15513000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14461000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12526000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-785000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1091000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1222000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1639000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1802000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2115000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2360000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2376000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2666000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E76" s="3">
         <v>414000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>573000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>221000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>439000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>665000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>771000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>757000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>412000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E81" s="3">
         <v>165000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>361000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>163000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>313000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>245000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>290000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-29000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2230000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2206000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2130000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2055000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2020000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1830000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>125000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>95000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2586000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2609000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2648000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2640000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2627000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2579000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2253000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1889000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1578000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13137000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12820000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11735000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12651000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12127000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12057000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11051000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11199000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9124000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2752000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3426000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2204000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2182000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2685000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2807000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2234000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2073000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2373000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E100" s="3">
         <v>667000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-308000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-449000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>72000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>182000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>76000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>250000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>424000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-16000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>45000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-50000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-23000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-166000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>181000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-36000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-69000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>87000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>72000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-377000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,167 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5402000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9172000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9124000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8848000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8659000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8502000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8485000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7937000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7357000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5900000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4694000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4627000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4491000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4408000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4300000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4253000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4081000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3824000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3025000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2202000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4478000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4497000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4357000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4251000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4202000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4232000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3856000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3533000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2875000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E14" s="3">
         <v>102000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>61000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>91000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>77000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>109000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>95000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>292000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>147000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>260000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1616000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2153000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2230000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2206000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2130000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2055000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2020000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1969000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1693000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1552000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5966000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8441000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8391000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8130000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7929000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7713000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7611000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7361000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6492000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5359000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-564000</v>
+      </c>
+      <c r="E18" s="3">
         <v>731000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>733000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>718000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>730000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>789000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>874000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>576000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>865000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>541000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-251000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-259000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-296000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-180000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-181000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-263000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-226000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-297000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-286000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>894000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2633000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2704000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2628000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2680000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2663000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2631000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2180000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>693000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>350000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E22" s="3">
         <v>193000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>207000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>211000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>271000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>226000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>219000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>253000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>268000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>219000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-956000</v>
+      </c>
+      <c r="E23" s="3">
         <v>287000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>267000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>211000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>279000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>382000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>392000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>97000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-272000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-15000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>102000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>63000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>116000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>69000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>147000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>81000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-684000</v>
+      </c>
+      <c r="E26" s="3">
         <v>302000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>165000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>148000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>163000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>313000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>245000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>290000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-29000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-684000</v>
+      </c>
+      <c r="E27" s="3">
         <v>302000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>165000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>148000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>163000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>313000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>245000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>290000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-29000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,11 +1420,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>213000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1380,9 +1441,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E32" s="3">
         <v>251000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>259000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>296000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>180000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>181000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>263000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>226000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>297000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>286000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-684000</v>
+      </c>
+      <c r="E33" s="3">
         <v>302000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>165000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>361000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>163000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>313000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>245000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>290000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-29000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-684000</v>
+      </c>
+      <c r="E35" s="3">
         <v>302000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>165000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>361000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>163000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>313000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>245000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>290000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-29000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,41 +1733,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E41" s="3">
         <v>686000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>615000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>611000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>490000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>452000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>624000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>693000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>606000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>534000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,42 +1802,48 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>647000</v>
+      </c>
+      <c r="E43" s="3">
         <v>911000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>955000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>922000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>808000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>668000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>599000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>619000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>553000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>507000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,174 +1874,192 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E45" s="3">
         <v>548000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>604000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>533000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>519000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>507000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>615000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>632000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>551000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1795000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2145000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2174000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2066000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1817000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1627000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1679000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1944000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1710000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1541000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>948000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1427000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1190000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>970000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>889000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>800000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>724000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>909000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>801000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>723000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11090000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15228000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11614000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10704000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10168000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10376000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10179000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10196000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9803000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8849000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1911000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1899000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1917000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1923000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1877000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1890000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1728000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1614000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1106000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1066000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1794000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2427000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2254000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2036000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2892000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2941000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2532000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1621000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1798000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>759000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17538000</v>
+      </c>
+      <c r="E54" s="3">
         <v>23126000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19149000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17699000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17643000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17634000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16842000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16284000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15218000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12938000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,41 +2269,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E57" s="3">
         <v>378000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>371000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>359000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>343000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>352000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>328000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>344000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>309000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>312000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2181,164 +2315,179 @@
         <v>19000</v>
       </c>
       <c r="E58" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F58" s="3">
         <v>23000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>26000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>279000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>26000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>28000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>89000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>57000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>37000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1640000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1828000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1322000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1260000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1145000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1133000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1163000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1135000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1112000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1121000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2053000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2225000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1716000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1645000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1767000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1511000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1519000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1568000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1478000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1470000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11048000</v>
+      </c>
+      <c r="E61" s="3">
         <v>14484000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13760000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12794000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12122000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12295000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11381000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10642000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9654000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8732000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4592000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5761000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3259000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2687000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3533000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3389000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3277000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3303000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3329000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2324000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17693000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22470000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18735000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17126000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17422000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17195000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16177000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15513000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14461000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12526000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1470000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-785000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1091000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1222000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1639000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1802000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2115000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2360000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2376000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2666000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="E76" s="3">
         <v>656000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>414000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>573000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>221000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>439000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>665000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>771000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>757000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>412000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-684000</v>
+      </c>
+      <c r="E81" s="3">
         <v>302000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>165000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>361000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>163000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>313000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>245000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>290000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-29000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1616000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2153000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2230000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2206000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2130000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2055000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2020000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1830000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>125000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>95000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>691000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2586000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2609000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2648000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2640000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2627000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2579000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2253000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1889000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1578000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5495000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13137000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12820000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11735000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12651000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12127000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12057000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11051000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11199000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9124000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3177000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2752000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3426000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2204000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2182000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2685000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2807000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2234000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2073000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2373000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3526,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4045000</v>
+      </c>
+      <c r="E100" s="3">
         <v>318000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>667000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-308000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-449000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>72000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>182000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>76000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>250000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>424000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E101" s="3">
         <v>13000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>45000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-50000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-23000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E102" s="3">
         <v>165000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-166000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>181000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-36000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-69000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>87000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>72000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-377000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAR_YR_FIN.xlsx
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11090000</v>
+        <v>11370000</v>
       </c>
       <c r="E48" s="3">
-        <v>15228000</v>
+        <v>15565000</v>
       </c>
       <c r="F48" s="3">
-        <v>11614000</v>
+        <v>12210000</v>
       </c>
       <c r="G48" s="3">
-        <v>10704000</v>
+        <v>11330000</v>
       </c>
       <c r="H48" s="3">
-        <v>10168000</v>
+        <v>11149000</v>
       </c>
       <c r="I48" s="3">
-        <v>10376000</v>
+        <v>11339000</v>
       </c>
       <c r="J48" s="3">
-        <v>10179000</v>
+        <v>10853000</v>
       </c>
       <c r="K48" s="3">
         <v>10196000</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1794000</v>
+        <v>1514000</v>
       </c>
       <c r="E52" s="3">
-        <v>2427000</v>
+        <v>2090000</v>
       </c>
       <c r="F52" s="3">
-        <v>2254000</v>
+        <v>1658000</v>
       </c>
       <c r="G52" s="3">
-        <v>2036000</v>
+        <v>1410000</v>
       </c>
       <c r="H52" s="3">
-        <v>2892000</v>
+        <v>1911000</v>
       </c>
       <c r="I52" s="3">
-        <v>2941000</v>
+        <v>1978000</v>
       </c>
       <c r="J52" s="3">
-        <v>2532000</v>
+        <v>1858000</v>
       </c>
       <c r="K52" s="3">
         <v>1621000</v>

--- a/AAII_Financials/Yearly/CAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9313000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5402000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9172000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9124000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8848000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8659000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8502000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8485000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7937000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7357000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5900000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4255000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3200000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4694000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4627000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4491000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4408000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4300000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4253000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4081000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3824000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3025000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5058000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2202000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4478000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4497000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4357000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4251000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4202000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4232000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3856000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3533000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2875000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,9 +889,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,81 +928,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E14" s="3">
         <v>252000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>102000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>61000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>91000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>77000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>109000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>95000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>292000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>147000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>260000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1674000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1616000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2153000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2230000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2206000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2130000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2055000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2020000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1969000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1693000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1552000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1023,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7435000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5966000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8441000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8391000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8130000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7929000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7713000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7611000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7361000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6492000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5359000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1878000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-564000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>731000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>733000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>718000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>730000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>789000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>874000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>576000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>865000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>541000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1118,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-158000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-251000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-259000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-296000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-180000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-181000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-263000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-226000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-297000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-286000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3604000</v>
+      </c>
+      <c r="E21" s="3">
         <v>894000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2633000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2704000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2628000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2680000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2663000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2631000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2180000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>693000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>350000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E22" s="3">
         <v>234000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>193000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>207000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>211000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>271000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>226000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>219000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>253000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>268000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>219000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1708000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-956000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>287000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>267000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>211000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>279000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>382000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>392000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>97000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>36000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-272000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-15000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>102000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>63000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>116000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>69000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>147000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>81000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1349,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1283000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-684000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>302000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>165000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>148000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>163000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>313000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>245000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>290000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-29000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1285000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-684000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>302000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>165000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>148000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>163000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>313000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>245000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>290000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-29000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1466,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,11 +1484,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>213000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1444,9 +1505,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1583,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E32" s="3">
         <v>158000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>251000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>259000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>296000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>180000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>181000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>263000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>226000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>297000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>286000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1285000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-684000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>302000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>165000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>361000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>163000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>313000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>245000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>290000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-29000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1700,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1285000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-684000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>302000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>165000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>361000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>163000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>313000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>245000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>290000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-29000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,44 +1820,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E41" s="3">
         <v>692000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>686000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>615000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>611000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>490000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>452000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>624000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>693000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>606000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>534000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1805,45 +1895,51 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>775000</v>
+      </c>
+      <c r="E43" s="3">
         <v>647000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>911000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>955000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>922000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>808000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>668000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>599000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>619000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>553000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>507000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1877,189 +1973,207 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E45" s="3">
         <v>456000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>548000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>604000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>533000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>519000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>507000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>615000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>632000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>551000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1847000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1795000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2145000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2174000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2066000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1817000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1627000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1679000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1944000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1710000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1541000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="E47" s="3">
         <v>948000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1427000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1190000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>970000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>889000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>800000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>724000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>909000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>801000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>723000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15771000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11370000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15565000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12210000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11330000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11149000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11339000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10853000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10196000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9803000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8849000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1832000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1911000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1899000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1917000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1923000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1877000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1890000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1728000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1614000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1106000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1066000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2246,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2086000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1514000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2090000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1658000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1410000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1911000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1978000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1858000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1621000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1798000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>759000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2324,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22600000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17538000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23126000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19149000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17699000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17643000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17634000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16842000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16284000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15218000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12938000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,44 +2400,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>407000</v>
+      </c>
+      <c r="E57" s="3">
         <v>394000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>378000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>371000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>359000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>343000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>352000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>328000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>344000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>309000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>312000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2318,176 +2452,191 @@
         <v>19000</v>
       </c>
       <c r="F58" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G58" s="3">
         <v>23000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>279000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>26000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>28000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>89000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>57000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>37000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1640000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1828000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1322000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1260000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1145000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1133000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1163000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1135000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1112000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1121000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2408000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2053000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2225000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1716000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1645000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1767000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1511000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1519000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1568000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1478000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1470000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15380000</v>
+      </c>
+      <c r="E61" s="3">
         <v>11048000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14484000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13760000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12794000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12122000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12295000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11381000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10642000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9654000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8732000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5021000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4592000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5761000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3259000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2687000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3533000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3389000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3277000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3303000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3329000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2324000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2748,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22820000</v>
+      </c>
+      <c r="E66" s="3">
         <v>17693000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22470000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18735000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17126000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17422000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17195000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16177000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15513000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14461000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12526000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2921,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2960,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1470000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-785000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1091000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1222000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1639000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1802000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2115000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2360000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2376000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2666000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3116,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-220000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-155000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>656000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>414000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>573000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>221000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>439000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>665000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>771000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>757000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>412000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3194,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1285000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-684000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>302000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>165000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>361000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>163000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>313000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>245000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>290000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-29000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3297,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1674000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1616000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2153000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2230000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2206000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2130000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2055000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2020000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1830000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>125000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>95000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3528,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3491000</v>
+      </c>
+      <c r="E89" s="3">
         <v>691000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2586000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2609000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2648000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2640000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2627000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2579000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2253000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1889000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1578000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3587,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10162000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5495000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13137000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12820000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11735000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12651000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12127000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12057000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11051000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11199000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9124000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3701,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6306000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3177000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2752000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3426000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2204000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2182000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2685000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2807000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2234000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2073000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2373000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,8 +3760,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3562,9 +3796,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3913,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2687000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4045000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>318000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>667000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-308000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-449000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>72000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>182000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>76000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>250000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>424000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>42000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>13000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-16000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>45000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-50000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-23000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-135000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>165000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-166000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>181000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-69000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>87000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>72000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-377000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>CAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,192 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11994000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9313000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5402000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9172000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9124000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8848000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8659000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8502000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8485000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7937000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7357000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5900000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5293000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4255000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3200000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4694000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4627000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4491000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4408000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4300000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4253000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4081000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3824000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3025000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6701000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5058000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2202000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4478000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4497000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4357000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4251000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4202000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4232000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3856000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3533000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2875000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,9 +905,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,87 +947,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E14" s="3">
         <v>206000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>252000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>102000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>61000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>91000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>77000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>109000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>95000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>292000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>147000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>260000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1934000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1674000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1616000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2153000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2230000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2206000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2130000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2055000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2020000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1969000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1693000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1552000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1024,86 +1049,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8725000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7435000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5966000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8441000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8391000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8130000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7929000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7713000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7611000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7361000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6492000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5359000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3269000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1878000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-564000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>731000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>733000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>718000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>730000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>789000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>874000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>576000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>865000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>541000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,203 +1151,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>620000</v>
+      </c>
+      <c r="E20" s="3">
         <v>52000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-158000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-251000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-259000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-296000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-180000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-181000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-263000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-226000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-297000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-286000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5823000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3604000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>894000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2633000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2704000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2628000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2680000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2663000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2631000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2180000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>693000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>350000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E22" s="3">
         <v>222000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>234000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>193000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>207000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>211000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>271000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>226000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>219000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>253000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>268000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>219000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3636000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1708000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-956000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>287000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>267000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>211000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>279000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>382000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>392000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>97000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>36000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>880000</v>
+      </c>
+      <c r="E24" s="3">
         <v>425000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-272000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-15000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>102000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>63000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>116000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>69000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>147000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>81000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>65000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1352,87 +1400,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2756000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1283000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-684000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>302000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>165000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>148000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>163000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>313000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>245000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>290000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-29000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2764000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1285000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-684000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>302000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>165000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>148000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>163000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>313000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>245000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>290000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-29000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1469,9 +1526,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,11 +1547,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>213000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1508,9 +1568,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1547,9 +1610,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1586,87 +1652,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-620000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-52000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>158000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>251000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>259000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>296000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>180000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>181000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>263000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>226000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>297000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>286000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2764000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1285000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-684000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>302000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>165000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>361000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>163000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>313000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>245000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>290000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-29000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1703,92 +1778,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2764000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1285000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-684000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>302000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>165000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>361000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>163000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>313000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>245000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>290000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-29000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1804,8 +1888,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1821,47 +1906,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>570000</v>
+      </c>
+      <c r="E41" s="3">
         <v>534000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>692000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>686000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>615000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>611000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>490000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>452000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>624000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>693000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>606000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>534000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1898,48 +1987,54 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E43" s="3">
         <v>775000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>647000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>911000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>955000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>922000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>808000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>668000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>599000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>619000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>553000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>507000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1976,204 +2071,222 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E45" s="3">
         <v>538000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>456000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>548000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>604000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>533000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>519000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>507000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>615000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>632000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>551000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1886000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1847000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1795000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2145000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2174000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2066000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1817000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1627000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1679000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1944000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1710000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1541000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1064000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>948000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1427000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1190000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>970000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>889000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>800000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>724000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>909000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>801000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>723000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18960000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15771000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11370000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15565000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12210000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11330000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11149000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11339000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10853000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10196000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9803000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8849000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1736000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1832000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1911000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1899000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1917000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1923000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1877000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1890000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1728000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1614000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1106000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1066000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2210,9 +2323,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2249,48 +2365,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1948000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2086000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1514000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2090000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1658000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1410000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1911000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1978000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1858000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1621000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1798000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>759000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2327,48 +2449,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25927000</v>
+      </c>
+      <c r="E54" s="3">
         <v>22600000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17538000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23126000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19149000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17699000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17643000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17634000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16842000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16284000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15218000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12938000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2384,8 +2512,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2401,52 +2530,56 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E57" s="3">
         <v>407000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>394000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>378000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>371000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>359000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>343000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>352000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>328000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>344000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>309000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>312000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="E58" s="3">
         <v>19000</v>
@@ -2455,188 +2588,203 @@
         <v>19000</v>
       </c>
       <c r="G58" s="3">
+        <v>19000</v>
+      </c>
+      <c r="H58" s="3">
         <v>23000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>26000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>279000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>26000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>89000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>57000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>37000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2081000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1982000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1640000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1828000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1322000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1260000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1145000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1133000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1163000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1135000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1112000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1121000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2574000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2408000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2053000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2225000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1716000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1645000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1767000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1511000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1519000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1568000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1478000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1470000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18453000</v>
+      </c>
+      <c r="E61" s="3">
         <v>15380000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11048000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14484000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13760000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12794000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12122000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12295000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11381000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10642000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9654000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8732000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5600000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5021000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4592000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5761000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3259000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2687000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3533000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3389000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3277000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3303000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3329000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2324000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2673,9 +2821,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2712,9 +2863,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2751,48 +2905,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26630000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22820000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17693000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22470000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18735000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17126000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17422000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17195000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16177000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15513000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14461000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12526000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2808,8 +2968,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2846,9 +3007,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2885,9 +3049,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2924,9 +3091,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2963,48 +3133,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2579000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-185000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1470000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-785000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1091000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1222000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1639000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1802000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2115000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2360000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2376000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2666000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3041,9 +3217,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3080,9 +3259,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3119,48 +3301,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-703000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-220000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-155000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>656000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>414000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>573000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>221000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>439000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>665000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>771000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>757000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>412000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3197,92 +3385,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2764000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1285000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-684000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>302000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>165000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>361000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>163000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>313000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>245000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>290000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-29000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3298,47 +3495,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1934000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1674000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1616000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2153000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2230000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2206000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2130000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2055000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2020000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1830000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>125000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>95000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3375,9 +3576,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3414,9 +3618,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3453,9 +3660,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3492,9 +3702,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3531,48 +3744,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4707000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3491000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>691000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2586000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2609000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2648000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2640000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2627000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2579000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2253000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1889000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1578000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3588,47 +3807,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10737000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10162000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5495000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13137000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12820000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11735000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12651000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12127000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12057000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11051000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11199000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9124000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3665,9 +3888,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3704,48 +3930,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4299000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6306000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3177000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2752000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3426000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2204000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2182000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2685000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2807000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2234000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2073000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2373000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3761,8 +3993,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3799,9 +4032,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3838,9 +4074,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3877,9 +4116,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3916,124 +4158,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-360000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2687000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4045000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>318000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>667000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-308000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-449000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>72000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>182000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>76000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>250000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>424000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>42000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>13000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-16000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>45000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-50000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-23000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-139000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-135000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>165000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-166000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>181000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-36000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-69000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>87000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>72000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-377000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
